--- a/Tier System/in progress/v02-00/4DN-Metadata Tier System_2020-11-26_v02-00.xlsx
+++ b/Tier System/in progress/v02-00/4DN-Metadata Tier System_2020-11-26_v02-00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/MicroscopyMetadata4DNGuidelines_GitHub repo/Tier System/in progress/v02-00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6F51F-4ED3-2E4C-858B-378BB9FA2195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10930B6-298D-9F43-97D5-32BABA44EDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier system_v02-00" sheetId="2" r:id="rId1"/>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +347,12 @@
       <b/>
       <sz val="42"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -671,7 +677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -800,125 +806,140 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1309,7 +1330,7 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1331,137 +1352,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="57" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" s="56" customFormat="1" ht="272" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="272" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="63">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" s="58" customFormat="1" ht="238" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:13" s="51" customFormat="1" ht="238" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="59">
         <v>2</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="52" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:13" s="60" customFormat="1" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65">
+    <row r="5" spans="1:13" s="53" customFormat="1" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="58">
         <v>3</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -1470,16 +1491,16 @@
       <c r="G5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="59"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
@@ -1514,31 +1535,31 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="45.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="13" customWidth="1"/>
     <col min="8" max="8" width="34.1640625" style="14" customWidth="1"/>
     <col min="9" max="9" width="44.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="68.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" style="13" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1573,20 +1594,20 @@
       </c>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="181" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="88" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -1606,20 +1627,20 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="86" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="37" t="s">
@@ -1639,18 +1660,18 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="160" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -1659,11 +1680,11 @@
       <c r="G5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -1756,7 +1777,7 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="34">
@@ -1780,7 +1801,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="26">
         <v>3</v>
       </c>

--- a/Tier System/in progress/v02-00/4DN-Metadata Tier System_2020-11-26_v02-00.xlsx
+++ b/Tier System/in progress/v02-00/4DN-Metadata Tier System_2020-11-26_v02-00.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/MicroscopyMetadata4DNGuidelines_GitHub repo/Tier System/in progress/v02-00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10930B6-298D-9F43-97D5-32BABA44EDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F7245-A40B-5F45-9F3A-91598C7BC805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28320" windowHeight="16740" tabRatio="914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tier system_v02-00" sheetId="2" r:id="rId1"/>
-    <sheet name="Tier system_v02-00 SUMMARY" sheetId="10" r:id="rId2"/>
-    <sheet name="Tier system_v02-00 MINIMAL" sheetId="11" r:id="rId3"/>
+    <sheet name="Tier system_v02-00" sheetId="12" r:id="rId1"/>
+    <sheet name="Tier system_v02-00 SUMMARY" sheetId="13" r:id="rId2"/>
+    <sheet name="Tier system_v02-00 MINIMAL" sheetId="14" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tier system_v02-00'!$A$2:$L$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tier system_v02-00 MINIMAL'!$A$2:$G$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tier system_v02-00 MINIMAL'!$A$2:$H$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Tier system_v02-00 SUMMARY'!$A$2:$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>-- required metadata --</t>
   </si>
@@ -51,24 +51,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Example Labelling</t>
   </si>
   <si>
-    <t>FISH, Immuno Fluorescence</t>
-  </si>
-  <si>
-    <t>recommended annually (not required)</t>
-  </si>
-  <si>
-    <t>recommended quarterly (not required)</t>
-  </si>
-  <si>
-    <t>Development of novel unproved technology or of new gold-standard; full reproducibility ofmicroscopy set up and image acquisition settings</t>
-  </si>
-  <si>
     <t>Optical calibration</t>
   </si>
   <si>
@@ -90,114 +75,126 @@
     <t>required monthly</t>
   </si>
   <si>
-    <t>Experiment/ Sample</t>
-  </si>
-  <si>
     <t>Image acquisition settings</t>
   </si>
   <si>
-    <t xml:space="preserve">- acquisition time settings
-- sample positioning settings
-- objective temperature
-- measured immersion medium refractive index
-</t>
-  </si>
-  <si>
     <t>all the metadata specified by the data model - including any novel technology-specific metrics</t>
   </si>
   <si>
     <t>required for every acquisition</t>
   </si>
   <si>
-    <t>all of the above</t>
-  </si>
-  <si>
     <t>Tier Nr.</t>
   </si>
   <si>
-    <t>- experiment description and date 
-- sample description
-- experimenter name
-- mounting medium</t>
-  </si>
-  <si>
-    <t>Transfection control, viability assay, counting of cells and nuclei, expression level measurements, study of cellular sub-compartments</t>
-  </si>
-  <si>
-    <t>Reporting qualitative effects without quantification; identification of non-refractive limited objects followed by basic  feature extraction and statistical analysis</t>
-  </si>
-  <si>
-    <t>- microscope manufacturer, name and type
-- light source manufacturer, wavelenght and type
-- objective manufacturer, magnification, NA and correction
-- filter/dichroic transmittance range
-- detector manufacturer and type</t>
-  </si>
-  <si>
-    <t>Identification and localization of refraction-limited particles, super-resolution microscopy; tracking of intracellular dynamics</t>
-  </si>
-  <si>
-    <t>Diffraction-limited spot localization, measurement of distances, co-localization studies, signal-starved features, advanced processing; cell and single particle tracking, dynamic expression level quantification</t>
-  </si>
-  <si>
-    <t>detailed microscope table, light source and light source coupling, magnification, focusing and autofocus, light path, filter, dichroic, additional optics and detector specification &amp; settings</t>
-  </si>
-  <si>
-    <t>Full reproducibility of microscopic set-up and image acquisition</t>
-  </si>
-  <si>
-    <t>required monthly/ highly recommended</t>
-  </si>
-  <si>
     <t>Quality Control</t>
   </si>
   <si>
-    <t>Manufacturing/
-Full Documention/ Technical Development</t>
-  </si>
-  <si>
     <t>Microscope hardware specifications</t>
-  </si>
-  <si>
-    <t>All of the above + Fluoresent Protein (FP) labelling, Single Molecule (SM) FISH, CasFISH, SM Proximity Ligation Assay (PLA), dCas9-based labelling</t>
-  </si>
-  <si>
-    <t>Minimum Information About Light Microscopy/ Documentation/
-Material and Methods</t>
   </si>
   <si>
     <t>Advanced Quantification 
 and/or Live Cell Imaging</t>
   </si>
   <si>
-    <t>required quarterly to monthly</t>
-  </si>
-  <si>
-    <t>highly-recommended quarterly to monthly</t>
-  </si>
-  <si>
-    <t>- imaging temperature, air pressure, humidity and CO2 percentage
-- mounting medium measured refractive index
-- high precision coverglass</t>
-  </si>
-  <si>
-    <t>- acquisition date
-- immersion medium name and refractive index
-- calibrated magnification
-- exposure time; pixel dwell time
-- channel name, color, contrast method and acquisition mode, illumination type, fluorophore
-- image dimension order and number, channel order
-- physical pixel size x, y, and z</t>
-  </si>
-  <si>
-    <t>required for every acquisition/monthly/quarterly</t>
+    <t>Manufacturing/ Technical Development/
+Full Documentation</t>
+  </si>
+  <si>
+    <t>Minimum Information/  
+Material &amp; Methods</t>
+  </si>
+  <si>
+    <t>Reporting qualitative effects, or effects that require simple quantification including the identification of non-refractive limited objects followed by basic  feature extraction and statistical analysis</t>
+  </si>
+  <si>
+    <t>Identification and localization of refraction-limited particles, super-resolution microscopy, tracking of intracellular dynamics</t>
+  </si>
+  <si>
+    <t>Full documentation of microscopic setup, image acquisition and quality control</t>
+  </si>
+  <si>
+    <t>Transfection control, viability assay, counting of cells and nuclei, expression level measurements, localization of markers in cellular sub-compartments</t>
+  </si>
+  <si>
+    <t>Diffraction-limited spot localization, measurement of distances, co-localization studies, signal-starved features, advanced processing, cell tracking and single-particle tracking, dynamic expression level quantification</t>
+  </si>
+  <si>
+    <t>Microscopy hardware manufacturing;  development of novel unproven technology in both commercial and academic settings; full reproducibility of microscopy set-up and image acquisition settings</t>
+  </si>
+  <si>
+    <t>FISH, Immuno Fluorescence, Fluoresent Protein (FP) labelling</t>
+  </si>
+  <si>
+    <t>All of the above +  Single Molecule (SM) FISH, CasFISH, SM Proximity Ligation Assay (PLA), dCas9-based labelling, OligoPaint</t>
+  </si>
+  <si>
+    <t>required monthly to quarterly</t>
+  </si>
+  <si>
+    <t>highly-recommended monthly to quarterly</t>
+  </si>
+  <si>
+    <t>Not required or recommended quarterly to annualy depending on the type of procedure</t>
+  </si>
+  <si>
+    <t>Highly recommended or required monthly to quarterly depending on the type of procedure</t>
+  </si>
+  <si>
+    <t>Required for every acquisition, monthly or quarterly depending on the type of procedure</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>Experimental/ Sample</t>
+  </si>
+  <si>
+    <t>microscope manufacturer, model and type; light source manufacturer, wavelenght and type; objective manufacturer, magnification, NA and correction; filter/dichroic transmittance range; detector manufacturer and type</t>
+  </si>
+  <si>
+    <t>experimenter name; experiment description and date; sample description; mounting medium; temperature and CO2 conditions;</t>
+  </si>
+  <si>
+    <t>detailed microscope table, light source, light source coupling, transmittance light path,  magnification, sample positioning, focusing,  autofocus, filter, dichroic, additional optics and detector specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2 pressure, and humidity conditions; refractive index of the mounting medium; thickness of the coverglass
+</t>
+  </si>
+  <si>
+    <t>acquisition date; immersion liquid name and refractive index; illumination type and intensity; fluorophore; exposure time; pixel dwell time; channel name, color, contrast method and acquisition mode; image dimension order and number; physical pixel size x, y, and z</t>
+  </si>
+  <si>
+    <t>illumination attenuation; objective temperature and iris aperture; immersion liquid measured refractive index; sample positioning settings; detector integration; ligthpath configuration</t>
+  </si>
+  <si>
+    <t>not required; recommended quarterly</t>
+  </si>
+  <si>
+    <t>not required; recommended annually</t>
+  </si>
+  <si>
+    <t>Microscope Hardware Specifications and Acquisition Settings</t>
+  </si>
+  <si>
+    <t>All the metadata specified by the guidelinesl - including any novel and technology-specific metrics</t>
+  </si>
+  <si>
+    <t>Manufactuer, model and type of microscope, lightsource, objective, filter, dichroic and detector; acquisition date, immersion liquid refractive index, exposure time, image dimension order and number; physical pixel size x, y, and z</t>
+  </si>
+  <si>
+    <t>Detailed microscope hardware components specifications and acquisition settings</t>
+  </si>
+  <si>
+    <t>Example Experiment Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,33 +251,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="48"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -293,18 +264,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -323,35 +282,45 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="72"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="72"/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="42"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="28"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -383,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -499,9 +468,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +484,54 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +544,31 @@
         <color theme="1"/>
       </top>
       <bottom style="double">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,7 +583,7 @@
         <color theme="1"/>
       </top>
       <bottom style="double">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +592,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -566,76 +607,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="double">
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,7 +653,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -725,221 +701,176 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1323,184 +1254,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82A262-E1D9-3344-96EA-CB12FAB61B19}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="53" style="14" customWidth="1"/>
-    <col min="12" max="12" width="62.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48" style="13" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33" style="13" customWidth="1"/>
+    <col min="7" max="9" width="23.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="58.83203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="67.33203125" style="13" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="343" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="343" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="343" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="272" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="E5" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" s="51" customFormat="1" ht="238" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="59">
-        <v>2</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" s="53" customFormat="1" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="58">
-        <v>3</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="52"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
@@ -1510,181 +1439,176 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="27" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup scale="26" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603B10D7-2BAF-0044-A3B1-1683415F26F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F87635-7A6D-6244-9A80-50065A1EC534}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="D1" zoomScale="61" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="44.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="60.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48" style="13" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33" style="13" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="58.83203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>41</v>
+      <c r="I3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>13</v>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="242" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="41" t="s">
+      <c r="J4" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="160" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="26">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="G5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -1705,124 +1629,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EC4F8C-BE03-7C41-A0CD-B12804F1726B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3876B8-A0FB-DE45-94CC-EB264FD2D096}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:I6"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="89" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="35.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48" style="13" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:9" s="24" customFormat="1" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="20"/>
+      <c r="G2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="181" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="23">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="C3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>13</v>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="245" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="26">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="G5" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5"/>
     </row>
-    <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="15"/>
